--- a/GCNs/results/metrics_chart.xlsx
+++ b/GCNs/results/metrics_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capti\PycharmProjects\topic-forecasting\GCNs\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989CA3C-DE0B-4A3B-B9DB-9702FC9C552B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AD43EF-E9DF-430E-8CCA-4DA6FFE7A686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,21 @@
     <sheet name="patents test mse" sheetId="2" r:id="rId3"/>
     <sheet name="papers train mse" sheetId="5" r:id="rId4"/>
     <sheet name="papers test mse" sheetId="4" r:id="rId5"/>
+    <sheet name="patent trng" sheetId="7" r:id="rId6"/>
+    <sheet name="patent fcst" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$J$77</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="35">
   <si>
     <t>timestamp</t>
   </si>
@@ -95,6 +97,55 @@
   <si>
     <t>AGCRN</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>['betweenness', 'closeness', 'degree']</t>
+  </si>
+  <si>
+    <t>['closeness', 'degree']</t>
+  </si>
+  <si>
+    <t>['betweenness', 'closeness']</t>
+  </si>
+  <si>
+    <t>['closeness']</t>
+  </si>
+  <si>
+    <t>['betweenness', 'degree']</t>
+  </si>
+  <si>
+    <t>['degree']</t>
+  </si>
+  <si>
+    <t>['betweenness']</t>
+  </si>
+  <si>
+    <t>Features</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCNs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCRNN</t>
+  </si>
+  <si>
+    <t>AGCRN</t>
+  </si>
+  <si>
+    <t>TGCN</t>
+  </si>
+  <si>
+    <t>A3TGCN</t>
   </si>
 </sst>
 </file>
@@ -687,12 +738,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -32905,7 +32959,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="papers_1"/>
@@ -34227,9 +34281,9 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -34258,7 +34312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>5</v>
       </c>
@@ -34290,7 +34344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -34322,7 +34376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -34354,7 +34408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -34386,7 +34440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>13</v>
       </c>
@@ -34418,7 +34472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>12</v>
       </c>
@@ -34450,7 +34504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -34482,7 +34536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -34514,7 +34568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>22</v>
       </c>
@@ -34546,7 +34600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>20</v>
       </c>
@@ -34578,7 +34632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>16</v>
       </c>
@@ -34610,7 +34664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>18</v>
       </c>
@@ -34642,7 +34696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>30</v>
       </c>
@@ -34674,7 +34728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>28</v>
       </c>
@@ -34706,7 +34760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>24</v>
       </c>
@@ -34738,7 +34792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>26</v>
       </c>
@@ -34770,7 +34824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>38</v>
       </c>
@@ -34802,7 +34856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>36</v>
       </c>
@@ -34834,7 +34888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>32</v>
       </c>
@@ -34866,7 +34920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>34</v>
       </c>
@@ -34898,7 +34952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>46</v>
       </c>
@@ -34930,7 +34984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>44</v>
       </c>
@@ -34962,7 +35016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>40</v>
       </c>
@@ -34994,7 +35048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>42</v>
       </c>
@@ -35026,7 +35080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>53</v>
       </c>
@@ -35058,7 +35112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>52</v>
       </c>
@@ -35090,7 +35144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>48</v>
       </c>
@@ -35122,7 +35176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>50</v>
       </c>
@@ -35154,7 +35208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>62</v>
       </c>
@@ -35186,7 +35240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>60</v>
       </c>
@@ -35218,7 +35272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>56</v>
       </c>
@@ -35250,7 +35304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>58</v>
       </c>
@@ -35282,7 +35336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>7</v>
       </c>
@@ -35314,7 +35368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>6</v>
       </c>
@@ -35346,7 +35400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2</v>
       </c>
@@ -35378,7 +35432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>4</v>
       </c>
@@ -35410,7 +35464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>15</v>
       </c>
@@ -35442,7 +35496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>14</v>
       </c>
@@ -35474,7 +35528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>10</v>
       </c>
@@ -35506,7 +35560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>11</v>
       </c>
@@ -35538,7 +35592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>23</v>
       </c>
@@ -35570,7 +35624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>21</v>
       </c>
@@ -35602,7 +35656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>17</v>
       </c>
@@ -35634,7 +35688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>19</v>
       </c>
@@ -35666,7 +35720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>31</v>
       </c>
@@ -35698,7 +35752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>29</v>
       </c>
@@ -35730,7 +35784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>25</v>
       </c>
@@ -35762,7 +35816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>27</v>
       </c>
@@ -35794,7 +35848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>39</v>
       </c>
@@ -35826,7 +35880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>37</v>
       </c>
@@ -35858,7 +35912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>33</v>
       </c>
@@ -35890,7 +35944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>35</v>
       </c>
@@ -35922,7 +35976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>47</v>
       </c>
@@ -35954,7 +36008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>45</v>
       </c>
@@ -35986,7 +36040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>41</v>
       </c>
@@ -36018,7 +36072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>43</v>
       </c>
@@ -36050,7 +36104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>55</v>
       </c>
@@ -36082,7 +36136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>54</v>
       </c>
@@ -36114,7 +36168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>49</v>
       </c>
@@ -36146,7 +36200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>51</v>
       </c>
@@ -36178,7 +36232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>63</v>
       </c>
@@ -36210,7 +36264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>61</v>
       </c>
@@ -36242,7 +36296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>57</v>
       </c>
@@ -36274,7 +36328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>59</v>
       </c>
@@ -36306,7 +36360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>67</v>
       </c>
@@ -36338,7 +36392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -36370,7 +36424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>64</v>
       </c>
@@ -36402,7 +36456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>65</v>
       </c>
@@ -36434,7 +36488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>71</v>
       </c>
@@ -36466,7 +36520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -36498,7 +36552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>68</v>
       </c>
@@ -36530,7 +36584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>69</v>
       </c>
@@ -36562,7 +36616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>75</v>
       </c>
@@ -36594,7 +36648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -36626,7 +36680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>72</v>
       </c>
@@ -36658,7 +36712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>73</v>
       </c>
@@ -36719,9 +36773,9 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -36738,7 +36792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -36755,7 +36809,7 @@
         <v>7.80183970928192E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -36772,7 +36826,7 @@
         <v>7.7192649245262104E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -36789,7 +36843,7 @@
         <v>7.6377868652343694E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -36806,7 +36860,7 @@
         <v>7.55767822265625E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -36823,7 +36877,7 @@
         <v>7.4787884950637804E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -36840,7 +36894,7 @@
         <v>7.4008420109748799E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -36857,7 +36911,7 @@
         <v>7.3234289884567205E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -36874,7 +36928,7 @@
         <v>7.24620521068573E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -36891,7 +36945,7 @@
         <v>7.1690075099468203E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -36908,7 +36962,7 @@
         <v>7.0917129516601493E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -36925,7 +36979,7 @@
         <v>7.0141769945621393E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -36942,7 +36996,7 @@
         <v>6.9363288581371293E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -36959,7 +37013,7 @@
         <v>6.8581029772758401E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -36976,7 +37030,7 @@
         <v>6.7793652415275504E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -36993,7 +37047,7 @@
         <v>6.7000113427638994E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -37010,7 +37064,7 @@
         <v>6.6200144588947296E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -37027,7 +37081,7 @@
         <v>6.5393246710300404E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -37044,7 +37098,7 @@
         <v>6.4578883349895394E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -37061,7 +37115,7 @@
         <v>6.3756301999092102E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -37078,7 +37132,7 @@
         <v>6.29250332713127E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -37095,7 +37149,7 @@
         <v>6.2084473669528899E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -37112,7 +37166,7 @@
         <v>6.1234403401613201E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -37129,7 +37183,7 @@
         <v>6.0374323278665501E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -37146,7 +37200,7 @@
         <v>5.9504102915525402E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -37163,7 +37217,7 @@
         <v>5.86225725710392E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -37180,7 +37234,7 @@
         <v>5.7729009538888897E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -37197,7 +37251,7 @@
         <v>5.6822858750820097E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -37214,7 +37268,7 @@
         <v>5.5903159081935799E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -37231,7 +37285,7 @@
         <v>5.4969310760497998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -37248,7 +37302,7 @@
         <v>5.4020762443542397E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -37265,7 +37319,7 @@
         <v>5.30576147139072E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -37282,7 +37336,7 @@
         <v>5.2079912275075899E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -37299,7 +37353,7 @@
         <v>5.1087811589241E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>33</v>
       </c>
@@ -37316,7 +37370,7 @@
         <v>5.0083376467227901E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>34</v>
       </c>
@@ -37333,7 +37387,7 @@
         <v>4.9069210886955199E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>35</v>
       </c>
@@ -37350,7 +37404,7 @@
         <v>4.8050716519355698E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -37367,7 +37421,7 @@
         <v>4.7037735581398003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>37</v>
       </c>
@@ -37384,7 +37438,7 @@
         <v>4.6047054231166798E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>38</v>
       </c>
@@ -37401,7 +37455,7 @@
         <v>4.5108970254659597E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>39</v>
       </c>
@@ -37418,7 +37472,7 @@
         <v>4.4272560626268297E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40</v>
       </c>
@@ -37435,7 +37489,7 @@
         <v>4.3587263673543902E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>41</v>
       </c>
@@ -37452,7 +37506,7 @@
         <v>4.3010853230953203E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>42</v>
       </c>
@@ -37469,7 +37523,7 @@
         <v>4.2406599968671799E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -37486,7 +37540,7 @@
         <v>4.1703704744577401E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>44</v>
       </c>
@@ -37503,7 +37557,7 @@
         <v>4.0924098342656999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>45</v>
       </c>
@@ -37520,7 +37574,7 @@
         <v>4.0118433535099002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>46</v>
       </c>
@@ -37537,7 +37591,7 @@
         <v>3.9324995130300501E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>47</v>
       </c>
@@ -37554,7 +37608,7 @@
         <v>3.8560628890991197E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>48</v>
       </c>
@@ -37571,7 +37625,7 @@
         <v>3.7826742976903902E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>49</v>
       </c>
@@ -37588,7 +37642,7 @@
         <v>3.7116620689630501E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>50</v>
       </c>
@@ -37605,7 +37659,7 @@
         <v>3.6422919481992701E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>51</v>
       </c>
@@ -37622,7 +37676,7 @@
         <v>3.5740461200475603E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>52</v>
       </c>
@@ -37639,7 +37693,7 @@
         <v>3.5066571086645099E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>53</v>
       </c>
@@ -37656,7 +37710,7 @@
         <v>3.4400485455989803E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>54</v>
       </c>
@@ -37673,7 +37727,7 @@
         <v>3.3738579601049402E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>55</v>
       </c>
@@ -37690,7 +37744,7 @@
         <v>3.3081393688917098E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>56</v>
       </c>
@@ -37707,7 +37761,7 @@
         <v>3.2431185245513902E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>57</v>
       </c>
@@ -37724,7 +37778,7 @@
         <v>3.1790349632501602E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>58</v>
       </c>
@@ -37741,7 +37795,7 @@
         <v>3.11619453132152E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>59</v>
       </c>
@@ -37758,7 +37812,7 @@
         <v>3.0548941344022699E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>60</v>
       </c>
@@ -37775,7 +37829,7 @@
         <v>2.99539323896169E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>61</v>
       </c>
@@ -37792,7 +37846,7 @@
         <v>2.9380442574620198E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>62</v>
       </c>
@@ -37809,7 +37863,7 @@
         <v>2.8832335025072001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>63</v>
       </c>
@@ -37826,7 +37880,7 @@
         <v>2.8313154354691498E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>64</v>
       </c>
@@ -37843,7 +37897,7 @@
         <v>2.7825934812426501E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>65</v>
       </c>
@@ -37860,7 +37914,7 @@
         <v>2.7372388169169402E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>66</v>
       </c>
@@ -37877,7 +37931,7 @@
         <v>2.6954106986522602E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>67</v>
       </c>
@@ -37894,7 +37948,7 @@
         <v>2.6572205126285501E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>68</v>
       </c>
@@ -37911,7 +37965,7 @@
         <v>2.6225566864013599E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>69</v>
       </c>
@@ -37928,7 +37982,7 @@
         <v>2.5911016389727499E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>70</v>
       </c>
@@ -37945,7 +37999,7 @@
         <v>2.56234481930732E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>71</v>
       </c>
@@ -37962,7 +38016,7 @@
         <v>2.5356708094477601E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>72</v>
       </c>
@@ -37979,7 +38033,7 @@
         <v>2.51053497195243E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>73</v>
       </c>
@@ -37996,7 +38050,7 @@
         <v>2.4863589555025101E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>74</v>
       </c>
@@ -38013,7 +38067,7 @@
         <v>2.46248953044414E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>75</v>
       </c>
@@ -38030,7 +38084,7 @@
         <v>2.4386106058955099E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>76</v>
       </c>
@@ -38047,7 +38101,7 @@
         <v>2.41473130881786E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>77</v>
       </c>
@@ -38064,7 +38118,7 @@
         <v>2.3910162970423698E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>78</v>
       </c>
@@ -38081,7 +38135,7 @@
         <v>2.3677587509155201E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>79</v>
       </c>
@@ -38098,7 +38152,7 @@
         <v>2.3452633991837502E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>80</v>
       </c>
@@ -38115,7 +38169,7 @@
         <v>2.3236935958266199E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>81</v>
       </c>
@@ -38132,7 +38186,7 @@
         <v>2.3031117394566501E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>82</v>
       </c>
@@ -38149,7 +38203,7 @@
         <v>2.2835271432995699E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>83</v>
       </c>
@@ -38166,7 +38220,7 @@
         <v>2.26491671055555E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>84</v>
       </c>
@@ -38183,7 +38237,7 @@
         <v>2.2472230717539701E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>85</v>
       </c>
@@ -38200,7 +38254,7 @@
         <v>2.2304056212305998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>86</v>
       </c>
@@ -38217,7 +38271,7 @@
         <v>2.2144233807921399E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>87</v>
       </c>
@@ -38234,7 +38288,7 @@
         <v>2.1992284804582499E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>88</v>
       </c>
@@ -38251,7 +38305,7 @@
         <v>2.18477547168731E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>89</v>
       </c>
@@ -38268,7 +38322,7 @@
         <v>2.1711021661758399E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>90</v>
       </c>
@@ -38285,7 +38339,7 @@
         <v>2.1582607179880101E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>91</v>
       </c>
@@ -38302,7 +38356,7 @@
         <v>2.1462805569171899E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>92</v>
       </c>
@@ -38319,7 +38373,7 @@
         <v>2.1351950243115401E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>93</v>
       </c>
@@ -38336,7 +38390,7 @@
         <v>2.12500263005495E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>94</v>
       </c>
@@ -38353,7 +38407,7 @@
         <v>2.1156750619411399E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>95</v>
       </c>
@@ -38370,7 +38424,7 @@
         <v>2.1071454510092701E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>96</v>
       </c>
@@ -38387,7 +38441,7 @@
         <v>2.0993024110794001E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>97</v>
       </c>
@@ -38404,7 +38458,7 @@
         <v>2.09199748933315E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>98</v>
       </c>
@@ -38421,7 +38475,7 @@
         <v>2.0850526168942399E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>99</v>
       </c>
@@ -38438,7 +38492,7 @@
         <v>2.0782859995961099E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>100</v>
       </c>
@@ -38455,7 +38509,7 @@
         <v>2.0715398713946301E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>101</v>
       </c>
@@ -38472,7 +38526,7 @@
         <v>2.0646858960390001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>102</v>
       </c>
@@ -38489,7 +38543,7 @@
         <v>2.0576449111104001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>103</v>
       </c>
@@ -38506,7 +38560,7 @@
         <v>2.0503954961895901E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>104</v>
       </c>
@@ -38523,7 +38577,7 @@
         <v>2.0429603755474E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>105</v>
       </c>
@@ -38540,7 +38594,7 @@
         <v>2.0353781059384301E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>106</v>
       </c>
@@ -38557,7 +38611,7 @@
         <v>2.02771965414285E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>107</v>
       </c>
@@ -38574,7 +38628,7 @@
         <v>2.0200530067086199E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>108</v>
       </c>
@@ -38591,7 +38645,7 @@
         <v>2.01238747686147E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>109</v>
       </c>
@@ -38608,7 +38662,7 @@
         <v>2.0047210156917499E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>110</v>
       </c>
@@ -38625,7 +38679,7 @@
         <v>1.9970526918768799E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>111</v>
       </c>
@@ -38642,7 +38696,7 @@
         <v>1.98936816304922E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>112</v>
       </c>
@@ -38659,7 +38713,7 @@
         <v>1.9816579297184899E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>113</v>
       </c>
@@ -38676,7 +38730,7 @@
         <v>1.97390969842672E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>114</v>
       </c>
@@ -38693,7 +38747,7 @@
         <v>1.96608919650316E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>115</v>
       </c>
@@ -38710,7 +38764,7 @@
         <v>1.9581876695156E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>116</v>
       </c>
@@ -38727,7 +38781,7 @@
         <v>1.9501931965351101E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>117</v>
       </c>
@@ -38744,7 +38798,7 @@
         <v>1.94208063185215E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>118</v>
       </c>
@@ -38761,7 +38815,7 @@
         <v>1.9338626414537399E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>119</v>
       </c>
@@ -38778,7 +38832,7 @@
         <v>1.92553959786891E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>120</v>
       </c>
@@ -38795,7 +38849,7 @@
         <v>1.9170938059687601E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>121</v>
       </c>
@@ -38812,7 +38866,7 @@
         <v>1.90851408988237E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>122</v>
       </c>
@@ -38829,7 +38883,7 @@
         <v>1.8997682258486699E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>123</v>
       </c>
@@ -38846,7 +38900,7 @@
         <v>1.89078673720359E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>124</v>
       </c>
@@ -38863,7 +38917,7 @@
         <v>1.8815107643604199E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>125</v>
       </c>
@@ -38880,7 +38934,7 @@
         <v>1.87185741961002E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>126</v>
       </c>
@@ -38897,7 +38951,7 @@
         <v>1.86177808791399E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>127</v>
       </c>
@@ -38914,7 +38968,7 @@
         <v>1.8512291833758299E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>128</v>
       </c>
@@ -38931,7 +38985,7 @@
         <v>1.8401110544800699E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>129</v>
       </c>
@@ -38948,7 +39002,7 @@
         <v>1.82825792580842E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>130</v>
       </c>
@@ -38965,7 +39019,7 @@
         <v>1.8156945705413801E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>131</v>
       </c>
@@ -38982,7 +39036,7 @@
         <v>1.8024660646915401E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>132</v>
       </c>
@@ -38999,7 +39053,7 @@
         <v>1.78850032389163E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>133</v>
       </c>
@@ -39016,7 +39070,7 @@
         <v>1.7737856134772301E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>134</v>
       </c>
@@ -39033,7 +39087,7 @@
         <v>1.75830349326133E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>135</v>
       </c>
@@ -39050,7 +39104,7 @@
         <v>1.7420351505279499E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>136</v>
       </c>
@@ -39067,7 +39121,7 @@
         <v>1.72501243650913E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>137</v>
       </c>
@@ -39084,7 +39138,7 @@
         <v>1.7072852700948701E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>138</v>
       </c>
@@ -39101,7 +39155,7 @@
         <v>1.6889022663235598E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>139</v>
       </c>
@@ -39118,7 +39172,7 @@
         <v>1.6702270135283401E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>140</v>
       </c>
@@ -39135,7 +39189,7 @@
         <v>1.65129229426383E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>141</v>
       </c>
@@ -39152,7 +39206,7 @@
         <v>1.6322778537869401E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>142</v>
       </c>
@@ -39169,7 +39223,7 @@
         <v>1.6132595017552299E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>143</v>
       </c>
@@ -39186,7 +39240,7 @@
         <v>1.5943480655550901E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>144</v>
       </c>
@@ -39203,7 +39257,7 @@
         <v>1.57562773674726E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>145</v>
       </c>
@@ -39220,7 +39274,7 @@
         <v>1.55710941180586E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>146</v>
       </c>
@@ -39237,7 +39291,7 @@
         <v>1.53886405751109E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>147</v>
       </c>
@@ -39254,7 +39308,7 @@
         <v>1.52100166305899E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>148</v>
       </c>
@@ -39271,7 +39325,7 @@
         <v>1.5038146637380101E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>149</v>
       </c>
@@ -39288,7 +39342,7 @@
         <v>1.48727484047412E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>150</v>
       </c>
@@ -39305,7 +39359,7 @@
         <v>1.47125087678432E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>151</v>
       </c>
@@ -39322,7 +39376,7 @@
         <v>1.4556483365595301E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>152</v>
       </c>
@@ -39339,7 +39393,7 @@
         <v>1.4405488967895499E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>153</v>
       </c>
@@ -39356,7 +39410,7 @@
         <v>1.42598031088709E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>154</v>
       </c>
@@ -39373,7 +39427,7 @@
         <v>1.41183845698833E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>155</v>
       </c>
@@ -39390,7 +39444,7 @@
         <v>1.39812044799327E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>156</v>
       </c>
@@ -39407,7 +39461,7 @@
         <v>1.3849209994077599E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>157</v>
       </c>
@@ -39424,7 +39478,7 @@
         <v>1.3722425326704899E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>158</v>
       </c>
@@ -39441,7 +39495,7 @@
         <v>1.36011103168129E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>159</v>
       </c>
@@ -39458,7 +39512,7 @@
         <v>1.3486505486071099E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>160</v>
       </c>
@@ -39475,7 +39529,7 @@
         <v>1.33785866200923E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>161</v>
       </c>
@@ -39492,7 +39546,7 @@
         <v>1.32765183225274E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>162</v>
       </c>
@@ -39509,7 +39563,7 @@
         <v>1.31807029247283E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>163</v>
       </c>
@@ -39526,7 +39580,7 @@
         <v>1.3092067092657001E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>164</v>
       </c>
@@ -39543,7 +39597,7 @@
         <v>1.30103519186377E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>165</v>
       </c>
@@ -39560,7 +39614,7 @@
         <v>1.2935345992445901E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>166</v>
       </c>
@@ -39577,7 +39631,7 @@
         <v>1.2865713797509599E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>167</v>
       </c>
@@ -39594,7 +39648,7 @@
         <v>1.2800822034478101E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>168</v>
       </c>
@@ -39611,7 +39665,7 @@
         <v>1.2740983627736501E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>169</v>
       </c>
@@ -39628,7 +39682,7 @@
         <v>1.26845631748437E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>170</v>
       </c>
@@ -39645,7 +39699,7 @@
         <v>1.2630950659513401E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>171</v>
       </c>
@@ -39662,7 +39716,7 @@
         <v>1.25790927559137E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>172</v>
       </c>
@@ -39679,7 +39733,7 @@
         <v>1.2529375962913E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>173</v>
       </c>
@@ -39696,7 +39750,7 @@
         <v>1.2480645440518801E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>174</v>
       </c>
@@ -39713,7 +39767,7 @@
         <v>1.24329142272472E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>175</v>
       </c>
@@ -39730,7 +39784,7 @@
         <v>1.2385674752295E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>176</v>
       </c>
@@ -39747,7 +39801,7 @@
         <v>1.2339195236563599E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>177</v>
       </c>
@@ -39764,7 +39818,7 @@
         <v>1.2293267995118999E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>178</v>
       </c>
@@ -39781,7 +39835,7 @@
         <v>1.22475503012537E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>179</v>
       </c>
@@ -39798,7 +39852,7 @@
         <v>1.22023439034819E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>180</v>
       </c>
@@ -39815,7 +39869,7 @@
         <v>1.21575705707073E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>181</v>
       </c>
@@ -39832,7 +39886,7 @@
         <v>1.2113342061638801E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>182</v>
       </c>
@@ -39849,7 +39903,7 @@
         <v>1.20697943493723E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>183</v>
       </c>
@@ -39866,7 +39920,7 @@
         <v>1.2027011252939699E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>184</v>
       </c>
@@ -39883,7 +39937,7 @@
         <v>1.1984883807599499E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>185</v>
       </c>
@@ -39900,7 +39954,7 @@
         <v>1.19436988607048E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>186</v>
       </c>
@@ -39917,7 +39971,7 @@
         <v>1.1903410777449599E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>187</v>
       </c>
@@ -39934,7 +39988,7 @@
         <v>1.1863868683576501E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>188</v>
       </c>
@@ -39951,7 +40005,7 @@
         <v>1.1825221590697699E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>189</v>
       </c>
@@ -39968,7 +40022,7 @@
         <v>1.1787524446845001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>190</v>
       </c>
@@ -39985,7 +40039,7 @@
         <v>1.1750455945730201E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>191</v>
       </c>
@@ -40002,7 +40056,7 @@
         <v>1.1714253574609699E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>192</v>
       </c>
@@ -40019,7 +40073,7 @@
         <v>1.16790262982249E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>193</v>
       </c>
@@ -40036,7 +40090,7 @@
         <v>1.16446996107697E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>194</v>
       </c>
@@ -40053,7 +40107,7 @@
         <v>1.16111999377608E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>195</v>
       </c>
@@ -40070,7 +40124,7 @@
         <v>1.15786232054233E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>196</v>
       </c>
@@ -40087,7 +40141,7 @@
         <v>1.1546766385436001E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>197</v>
       </c>
@@ -40104,7 +40158,7 @@
         <v>1.15157393738627E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>198</v>
       </c>
@@ -40121,7 +40175,7 @@
         <v>1.14854779094457E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>199</v>
       </c>
@@ -40153,9 +40207,9 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -40169,8 +40223,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -40183,8 +40237,8 @@
         <v>0.356331467628479</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -40195,8 +40249,8 @@
         <v>0.19802133738994501</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>13</v>
       </c>
@@ -40207,8 +40261,8 @@
         <v>0.38124567270278897</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -40219,8 +40273,8 @@
         <v>0.35497498512268</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -40233,8 +40287,8 @@
         <v>0.36244437098503102</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -40245,8 +40299,8 @@
         <v>0.22737988829612699</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -40257,8 +40311,8 @@
         <v>0.37290638685226402</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -40269,8 +40323,8 @@
         <v>0.35130354762077298</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" t="s">
@@ -40283,8 +40337,8 @@
         <v>0.35343810915946899</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -40295,8 +40349,8 @@
         <v>0.23708103597164101</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -40307,8 +40361,8 @@
         <v>0.35006636381149198</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -40319,8 +40373,8 @@
         <v>0.34336796402931202</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="3">
         <v>4</v>
       </c>
       <c r="C14" t="s">
@@ -40333,8 +40387,8 @@
         <v>0.31475445628166199</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -40345,8 +40399,8 @@
         <v>0.22217892110347701</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -40357,8 +40411,8 @@
         <v>0.33498498797416598</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -40369,8 +40423,8 @@
         <v>0.32476153969764698</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="3">
         <v>5</v>
       </c>
       <c r="C18" t="s">
@@ -40383,8 +40437,8 @@
         <v>0.414099931716918</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>10</v>
       </c>
@@ -40395,8 +40449,8 @@
         <v>0.21561609208583801</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>13</v>
       </c>
@@ -40407,8 +40461,8 @@
         <v>0.433124840259552</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -40419,8 +40473,8 @@
         <v>0.41687870025634699</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="3">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -40433,8 +40487,8 @@
         <v>0.40335214138031</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>10</v>
       </c>
@@ -40445,8 +40499,8 @@
         <v>0.19607368111610399</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="2"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -40457,8 +40511,8 @@
         <v>0.41994085907936002</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="2"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -40469,8 +40523,8 @@
         <v>0.40581953525543202</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="3">
         <v>7</v>
       </c>
       <c r="C26" t="s">
@@ -40483,8 +40537,8 @@
         <v>0.35843572020530701</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="2"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>10</v>
       </c>
@@ -40495,8 +40549,8 @@
         <v>0.240782439708709</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="2"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>13</v>
       </c>
@@ -40507,8 +40561,8 @@
         <v>0.35602530837058999</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="2"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -40519,8 +40573,8 @@
         <v>0.35371562838554299</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="3">
         <v>8</v>
       </c>
       <c r="C30" t="s">
@@ -40533,8 +40587,8 @@
         <v>0.35167446732521002</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="2"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>10</v>
       </c>
@@ -40545,8 +40599,8 @@
         <v>0.240268319845199</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="2"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="3"/>
       <c r="C32" t="s">
         <v>13</v>
       </c>
@@ -40557,8 +40611,8 @@
         <v>0.278961241245269</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="2"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" s="3"/>
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -40569,8 +40623,8 @@
         <v>0.321828752756118</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" s="3">
         <v>9</v>
       </c>
       <c r="C34" t="s">
@@ -40583,8 +40637,8 @@
         <v>0.389429241418838</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" s="3"/>
       <c r="C35" t="s">
         <v>10</v>
       </c>
@@ -40595,8 +40649,8 @@
         <v>0.25012144446372903</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="2"/>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>13</v>
       </c>
@@ -40607,8 +40661,8 @@
         <v>0.38792586326599099</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="2"/>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -40619,8 +40673,8 @@
         <v>0.38682186603546098</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B38" s="3">
         <v>10</v>
       </c>
       <c r="C38" t="s">
@@ -40633,8 +40687,8 @@
         <v>0.370720624923706</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="2"/>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B39" s="3"/>
       <c r="C39" t="s">
         <v>10</v>
       </c>
@@ -40645,8 +40699,8 @@
         <v>0.22857756912708199</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="2"/>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>13</v>
       </c>
@@ -40657,8 +40711,8 @@
         <v>0.38809865713119501</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="2"/>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B41" s="3"/>
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -40669,8 +40723,8 @@
         <v>0.37124562263488697</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B42" s="3">
         <v>11</v>
       </c>
       <c r="C42" t="s">
@@ -40683,8 +40737,8 @@
         <v>0.38744693994522</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="2"/>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B43" s="3"/>
       <c r="C43" t="s">
         <v>10</v>
       </c>
@@ -40695,8 +40749,8 @@
         <v>0.20577210187911901</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="2"/>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B44" s="3"/>
       <c r="C44" t="s">
         <v>13</v>
       </c>
@@ -40707,8 +40761,8 @@
         <v>0.39262151718139598</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="2"/>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B45" s="3"/>
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -40743,13 +40797,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7E4CAD-D695-4C4B-A4E5-796BA549EC1F}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -40766,7 +40820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -40783,7 +40837,7 @@
         <v>6.5803736448287894E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -40800,7 +40854,7 @@
         <v>6.5017886459827395E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -40817,7 +40871,7 @@
         <v>6.42379149794578E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -40834,7 +40888,7 @@
         <v>6.3463628292083699E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -40851,7 +40905,7 @@
         <v>6.26953914761543E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -40868,7 +40922,7 @@
         <v>6.1933767050504601E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -40885,7 +40939,7 @@
         <v>6.1178088188171303E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -40902,7 +40956,7 @@
         <v>6.0428634285926798E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -40919,7 +40973,7 @@
         <v>5.9685003012418698E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -40936,7 +40990,7 @@
         <v>5.8947030454873997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -40953,7 +41007,7 @@
         <v>5.8214660733938203E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -40970,7 +41024,7 @@
         <v>5.7487513870000798E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -40987,7 +41041,7 @@
         <v>5.6765113025903702E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -41004,7 +41058,7 @@
         <v>5.6047096848487798E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -41021,7 +41075,7 @@
         <v>5.5333115160465199E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -41038,7 +41092,7 @@
         <v>5.4622933268547003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -41055,7 +41109,7 @@
         <v>5.39165176451206E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -41072,7 +41126,7 @@
         <v>5.3213331848382901E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -41089,7 +41143,7 @@
         <v>5.2512768656015299E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -41106,7 +41160,7 @@
         <v>5.1814019680023103E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -41123,7 +41177,7 @@
         <v>5.11165000498294E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -41140,7 +41194,7 @@
         <v>5.0419546663761097E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -41157,7 +41211,7 @@
         <v>4.9722753465175601E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -41174,7 +41228,7 @@
         <v>4.9026038497686303E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -41191,7 +41245,7 @@
         <v>4.83290180563926E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -41208,7 +41262,7 @@
         <v>4.7631226480007102E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -41225,7 +41279,7 @@
         <v>4.6932641416788101E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -41242,7 +41296,7 @@
         <v>4.62332367897033E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -41259,7 +41313,7 @@
         <v>4.5532736927270799E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -41276,7 +41330,7 @@
         <v>4.4831063598394297E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -41293,7 +41347,7 @@
         <v>4.4127836823463398E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -41310,7 +41364,7 @@
         <v>4.3422952294349601E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -41327,7 +41381,7 @@
         <v>4.2716577649116502E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>33</v>
       </c>
@@ -41344,7 +41398,7 @@
         <v>4.2008444666862398E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>34</v>
       </c>
@@ -41361,7 +41415,7 @@
         <v>4.1298046708106897E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>35</v>
       </c>
@@ -41378,7 +41432,7 @@
         <v>4.0585283190011902E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -41395,7 +41449,7 @@
         <v>3.9870172739028903E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>37</v>
       </c>
@@ -41412,7 +41466,7 @@
         <v>3.9152830839157098E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>38</v>
       </c>
@@ -41429,7 +41483,7 @@
         <v>3.84333804249763E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>39</v>
       </c>
@@ -41446,7 +41500,7 @@
         <v>3.7711951881647103E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40</v>
       </c>
@@ -41463,7 +41517,7 @@
         <v>3.69890742003917E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>41</v>
       </c>
@@ -41480,7 +41534,7 @@
         <v>3.6264706403017002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>42</v>
       </c>
@@ -41497,7 +41551,7 @@
         <v>3.5539060831069898E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -41514,7 +41568,7 @@
         <v>3.4812115132808602E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>44</v>
       </c>
@@ -41531,7 +41585,7 @@
         <v>3.40844355523586E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>45</v>
       </c>
@@ -41548,7 +41602,7 @@
         <v>3.3356562256813001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>46</v>
       </c>
@@ -41565,7 +41619,7 @@
         <v>3.2628938555717399E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>47</v>
       </c>
@@ -41582,7 +41636,7 @@
         <v>3.1902082264423301E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>48</v>
       </c>
@@ -41599,7 +41653,7 @@
         <v>3.1176833435893E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>49</v>
       </c>
@@ -41616,7 +41670,7 @@
         <v>3.0454063788056301E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>50</v>
       </c>
@@ -41633,7 +41687,7 @@
         <v>2.9734803363680801E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>51</v>
       </c>
@@ -41650,7 +41704,7 @@
         <v>2.9020102694630599E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>52</v>
       </c>
@@ -41667,7 +41721,7 @@
         <v>2.83111408352851E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>53</v>
       </c>
@@ -41684,7 +41738,7 @@
         <v>2.76097934693098E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>54</v>
       </c>
@@ -41701,7 +41755,7 @@
         <v>2.69175600260496E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>55</v>
       </c>
@@ -41718,7 +41772,7 @@
         <v>2.62367855757474E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>56</v>
       </c>
@@ -41735,7 +41789,7 @@
         <v>2.5570143014192501E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>57</v>
       </c>
@@ -41752,7 +41806,7 @@
         <v>2.4920390918850899E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>58</v>
       </c>
@@ -41769,7 +41823,7 @@
         <v>2.4290669709444001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>59</v>
       </c>
@@ -41786,7 +41840,7 @@
         <v>2.36849561333656E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>60</v>
       </c>
@@ -41803,7 +41857,7 @@
         <v>2.31072884052991E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>61</v>
       </c>
@@ -41820,7 +41874,7 @@
         <v>2.25621741265058E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>62</v>
       </c>
@@ -41837,7 +41891,7 @@
         <v>2.2053999826311999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>63</v>
       </c>
@@ -41854,7 +41908,7 @@
         <v>2.1587187424302101E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>64</v>
       </c>
@@ -41871,7 +41925,7 @@
         <v>2.1165620535612099E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>65</v>
       </c>
@@ -41888,7 +41942,7 @@
         <v>2.0791919901967E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>66</v>
       </c>
@@ -41905,7 +41959,7 @@
         <v>2.0466713234782202E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>67</v>
       </c>
@@ -41922,7 +41976,7 @@
         <v>2.01875995844602E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>68</v>
       </c>
@@ -41939,7 +41993,7 @@
         <v>1.9950149580836199E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>69</v>
       </c>
@@ -41956,7 +42010,7 @@
         <v>1.9746631383895801E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>70</v>
       </c>
@@ -41973,7 +42027,7 @@
         <v>1.9567428156733499E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>71</v>
       </c>
@@ -41990,7 +42044,7 @@
         <v>1.9402323290705601E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>72</v>
       </c>
@@ -42007,7 +42061,7 @@
         <v>1.92422345280647E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>73</v>
       </c>
@@ -42024,7 +42078,7 @@
         <v>1.9080182537436399E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>74</v>
       </c>
@@ -42041,7 +42095,7 @@
         <v>1.8912451341748199E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>75</v>
       </c>
@@ -42058,7 +42112,7 @@
         <v>1.8738077953457801E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>76</v>
       </c>
@@ -42075,7 +42129,7 @@
         <v>1.8558468669652901E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>77</v>
       </c>
@@ -42092,7 +42146,7 @@
         <v>1.8376275897026E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>78</v>
       </c>
@@ -42109,7 +42163,7 @@
         <v>1.8194662407040499E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>79</v>
       </c>
@@ -42126,7 +42180,7 @@
         <v>1.80169716477394E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>80</v>
       </c>
@@ -42143,7 +42197,7 @@
         <v>1.7845081165432899E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>81</v>
       </c>
@@ -42160,7 +42214,7 @@
         <v>1.76805723458528E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>82</v>
       </c>
@@ -42177,7 +42231,7 @@
         <v>1.7524408176541301E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>83</v>
       </c>
@@ -42194,7 +42248,7 @@
         <v>1.7377128824591598E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>84</v>
       </c>
@@ -42211,7 +42265,7 @@
         <v>1.72387138009071E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>85</v>
       </c>
@@ -42228,7 +42282,7 @@
         <v>1.7108824104070601E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>86</v>
       </c>
@@ -42245,7 +42299,7 @@
         <v>1.6986977308988498E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>87</v>
       </c>
@@ -42262,7 +42316,7 @@
         <v>1.68724413961172E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>88</v>
       </c>
@@ -42279,7 +42333,7 @@
         <v>1.67643595486879E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>89</v>
       </c>
@@ -42296,7 +42350,7 @@
         <v>1.6661874949932098E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>90</v>
       </c>
@@ -42313,7 +42367,7 @@
         <v>1.65642201900482E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>91</v>
       </c>
@@ -42330,7 +42384,7 @@
         <v>1.6470650210976601E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>92</v>
       </c>
@@ -42347,7 +42401,7 @@
         <v>1.6380732879042601E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>93</v>
       </c>
@@ -42364,7 +42418,7 @@
         <v>1.6294188797473901E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>94</v>
       </c>
@@ -42381,7 +42435,7 @@
         <v>1.6210801899433101E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>95</v>
       </c>
@@ -42398,7 +42452,7 @@
         <v>1.6130529344081799E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>96</v>
       </c>
@@ -42415,7 +42469,7 @@
         <v>1.6053365543484601E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>97</v>
       </c>
@@ -42432,7 +42486,7 @@
         <v>1.5979366376995999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>98</v>
       </c>
@@ -42449,7 +42503,7 @@
         <v>1.5908533707260999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>99</v>
       </c>
@@ -42466,7 +42520,7 @@
         <v>1.5840871259570101E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>100</v>
       </c>
@@ -42483,7 +42537,7 @@
         <v>1.5776388347148802E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>101</v>
       </c>
@@ -42500,7 +42554,7 @@
         <v>1.5715178102254802E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>102</v>
       </c>
@@ -42517,7 +42571,7 @@
         <v>1.56572069972753E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>103</v>
       </c>
@@ -42534,7 +42588,7 @@
         <v>1.5602434054016999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>104</v>
       </c>
@@ -42551,7 +42605,7 @@
         <v>1.5550726093351799E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>105</v>
       </c>
@@ -42568,7 +42622,7 @@
         <v>1.5501949936151499E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>106</v>
       </c>
@@ -42585,7 +42639,7 @@
         <v>1.54559947550296E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>107</v>
       </c>
@@ -42602,7 +42656,7 @@
         <v>1.54125979170203E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>108</v>
       </c>
@@ -42619,7 +42673,7 @@
         <v>1.5371478162705799E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>109</v>
       </c>
@@ -42636,7 +42690,7 @@
         <v>1.53323737904429E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>110</v>
       </c>
@@ -42653,7 +42707,7 @@
         <v>1.5295040793716901E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>111</v>
       </c>
@@ -42670,7 +42724,7 @@
         <v>1.5259214676916599E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>112</v>
       </c>
@@ -42687,7 +42741,7 @@
         <v>1.52246272191405E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>113</v>
       </c>
@@ -42704,7 +42758,7 @@
         <v>1.51910670101642E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>114</v>
       </c>
@@ -42721,7 +42775,7 @@
         <v>1.51583664119243E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>115</v>
       </c>
@@ -42738,7 +42792,7 @@
         <v>1.5126395039260301E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>116</v>
       </c>
@@ -42755,7 +42809,7 @@
         <v>1.50950020179152E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>117</v>
       </c>
@@ -42772,7 +42826,7 @@
         <v>1.5064106322824899E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>118</v>
       </c>
@@ -42789,7 +42843,7 @@
         <v>1.50337070226669E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>119</v>
       </c>
@@ -42806,7 +42860,7 @@
         <v>1.5003799460828301E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>120</v>
       </c>
@@ -42823,7 +42877,7 @@
         <v>1.49743938818573E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>121</v>
       </c>
@@ -42840,7 +42894,7 @@
         <v>1.4945501461625099E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>122</v>
       </c>
@@ -42857,7 +42911,7 @@
         <v>1.49171827360987E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>123</v>
       </c>
@@ -42874,7 +42928,7 @@
         <v>1.48893538862466E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>124</v>
       </c>
@@ -42891,7 +42945,7 @@
         <v>1.48620344698429E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>125</v>
       </c>
@@ -42908,7 +42962,7 @@
         <v>1.4835238456726E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>126</v>
       </c>
@@ -42925,7 +42979,7 @@
         <v>1.48089583963155E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>127</v>
       </c>
@@ -42942,7 +42996,7 @@
         <v>1.4783120714128E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>128</v>
       </c>
@@ -42959,7 +43013,7 @@
         <v>1.4757736586034201E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>129</v>
       </c>
@@ -42976,7 +43030,7 @@
         <v>1.47327492013573E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>130</v>
       </c>
@@ -42993,7 +43047,7 @@
         <v>1.4708086848258899E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>131</v>
       </c>
@@ -43010,7 +43064,7 @@
         <v>1.46837504580616E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>132</v>
       </c>
@@ -43027,7 +43081,7 @@
         <v>1.4659761451184699E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>133</v>
       </c>
@@ -43044,7 +43098,7 @@
         <v>1.4636090025305699E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>134</v>
       </c>
@@ -43061,7 +43115,7 @@
         <v>1.46127454936504E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>135</v>
       </c>
@@ -43078,7 +43132,7 @@
         <v>1.4589724130928501E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>136</v>
       </c>
@@ -43095,7 +43149,7 @@
         <v>1.45669849589467E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>137</v>
       </c>
@@ -43112,7 +43166,7 @@
         <v>1.45445289090275E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>138</v>
       </c>
@@ -43129,7 +43183,7 @@
         <v>1.45223727449774E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>139</v>
       </c>
@@ -43146,7 +43200,7 @@
         <v>1.45005276426672E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>140</v>
       </c>
@@ -43163,7 +43217,7 @@
         <v>1.44790234044194E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>141</v>
       </c>
@@ -43180,7 +43234,7 @@
         <v>1.4457839541137199E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>142</v>
       </c>
@@ -43197,7 +43251,7 @@
         <v>1.4436978846788399E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>143</v>
       </c>
@@ -43214,7 +43268,7 @@
         <v>1.44164618104696E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>144</v>
       </c>
@@ -43231,7 +43285,7 @@
         <v>1.43962418660521E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>145</v>
       </c>
@@ -43248,7 +43302,7 @@
         <v>1.4376300387084401E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>146</v>
       </c>
@@ -43265,7 +43319,7 @@
         <v>1.4356646686792301E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>147</v>
       </c>
@@ -43282,7 +43336,7 @@
         <v>1.43372705206274E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>148</v>
       </c>
@@ -43299,7 +43353,7 @@
         <v>1.43181979656219E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>149</v>
       </c>
@@ -43316,7 +43370,7 @@
         <v>1.4299362897872901E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>150</v>
       </c>
@@ -43333,7 +43387,7 @@
         <v>1.4280763454735199E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>151</v>
       </c>
@@ -43350,7 +43404,7 @@
         <v>1.42623959109187E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>152</v>
       </c>
@@ -43367,7 +43421,7 @@
         <v>1.4244247227907099E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>153</v>
       </c>
@@ -43384,7 +43438,7 @@
         <v>1.42263015732169E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>154</v>
       </c>
@@ -43401,7 +43455,7 @@
         <v>1.42085431143641E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>155</v>
       </c>
@@ -43418,7 +43472,7 @@
         <v>1.41909876838326E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>156</v>
       </c>
@@ -43435,7 +43489,7 @@
         <v>1.4173638075590101E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>157</v>
       </c>
@@ -43452,7 +43506,7 @@
         <v>1.41564644873142E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>158</v>
       </c>
@@ -43469,7 +43523,7 @@
         <v>1.41394650563597E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>159</v>
       </c>
@@ -43486,7 +43540,7 @@
         <v>1.4122650027275E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>160</v>
       </c>
@@ -43503,7 +43557,7 @@
         <v>1.41060119494795E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>161</v>
       </c>
@@ -43520,7 +43574,7 @@
         <v>1.40895042568445E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>162</v>
       </c>
@@ -43537,7 +43591,7 @@
         <v>1.4073154889047101E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>163</v>
       </c>
@@ -43554,7 +43608,7 @@
         <v>1.40569629147648E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>164</v>
       </c>
@@ -43571,7 +43625,7 @@
         <v>1.40409311279654E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>165</v>
       </c>
@@ -43588,7 +43642,7 @@
         <v>1.40250334516167E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>166</v>
       </c>
@@ -43605,7 +43659,7 @@
         <v>1.40092968940734E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>167</v>
       </c>
@@ -43622,7 +43676,7 @@
         <v>1.3993733562529E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>168</v>
       </c>
@@ -43639,7 +43693,7 @@
         <v>1.3978331349789999E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>169</v>
       </c>
@@ -43656,7 +43710,7 @@
         <v>1.3963058590888901E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>170</v>
       </c>
@@ -43673,7 +43727,7 @@
         <v>1.3947894796728999E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>171</v>
       </c>
@@ -43690,7 +43744,7 @@
         <v>1.39328632503747E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>172</v>
       </c>
@@ -43707,7 +43761,7 @@
         <v>1.39179592952132E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>173</v>
       </c>
@@ -43724,7 +43778,7 @@
         <v>1.39031819999217E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>174</v>
       </c>
@@ -43741,7 +43795,7 @@
         <v>1.38885220512747E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>175</v>
       </c>
@@ -43758,7 +43812,7 @@
         <v>1.38739757239818E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>176</v>
       </c>
@@ -43775,7 +43829,7 @@
         <v>1.3859555125236501E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>177</v>
       </c>
@@ -43792,7 +43846,7 @@
         <v>1.3845236040651699E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>178</v>
       </c>
@@ -43809,7 +43863,7 @@
         <v>1.38310305774211E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>179</v>
       </c>
@@ -43826,7 +43880,7 @@
         <v>1.3816947117447799E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>180</v>
       </c>
@@ -43843,7 +43897,7 @@
         <v>1.3802948407828799E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>181</v>
       </c>
@@ -43860,7 +43914,7 @@
         <v>1.3789041899144599E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>182</v>
       </c>
@@ -43877,7 +43931,7 @@
         <v>1.37752303853631E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>183</v>
       </c>
@@ -43894,7 +43948,7 @@
         <v>1.37615054845809E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>184</v>
       </c>
@@ -43911,7 +43965,7 @@
         <v>1.3747895136475501E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>185</v>
       </c>
@@ -43928,7 +43982,7 @@
         <v>1.3734388165175899E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>186</v>
       </c>
@@ -43945,7 +43999,7 @@
         <v>1.37209435924887E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>187</v>
       </c>
@@ -43962,7 +44016,7 @@
         <v>1.37075399979949E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>188</v>
       </c>
@@ -43979,7 +44033,7 @@
         <v>1.36942025274038E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>189</v>
       </c>
@@ -43996,7 +44050,7 @@
         <v>1.3680919073522001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>190</v>
       </c>
@@ -44013,7 +44067,7 @@
         <v>1.36677231639623E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>191</v>
       </c>
@@ -44030,7 +44084,7 @@
         <v>1.36545682325959E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>192</v>
       </c>
@@ -44047,7 +44101,7 @@
         <v>1.3641490601003101E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>193</v>
       </c>
@@ -44064,7 +44118,7 @@
         <v>1.36285070329904E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>194</v>
       </c>
@@ -44081,7 +44135,7 @@
         <v>1.36155905202031E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>195</v>
       </c>
@@ -44098,7 +44152,7 @@
         <v>1.3602721504867001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>196</v>
       </c>
@@ -44115,7 +44169,7 @@
         <v>1.3589926995337001E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>197</v>
       </c>
@@ -44132,7 +44186,7 @@
         <v>1.35771902278065E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>198</v>
       </c>
@@ -44149,7 +44203,7 @@
         <v>1.35645056143403E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>199</v>
       </c>
@@ -44181,9 +44235,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -44197,8 +44251,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -44211,8 +44265,8 @@
         <v>8.9191161096095997E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -44223,8 +44277,8 @@
         <v>0.10264392197132099</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>13</v>
       </c>
@@ -44235,8 +44289,8 @@
         <v>8.8903687894344302E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -44247,8 +44301,8 @@
         <v>8.9981481432914706E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -44261,8 +44315,8 @@
         <v>9.3065507709979997E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -44273,8 +44327,8 @@
         <v>9.608805924654E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -44285,8 +44339,8 @@
         <v>9.0179972350597298E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -44297,8 +44351,8 @@
         <v>8.8264644145965507E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" t="s">
@@ -44311,8 +44365,8 @@
         <v>8.8056415319442694E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -44323,8 +44377,8 @@
         <v>0.105235368013381</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -44335,8 +44389,8 @@
         <v>9.0183906257152502E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -44347,8 +44401,8 @@
         <v>8.8850304484367301E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="3">
         <v>4</v>
       </c>
       <c r="C14" t="s">
@@ -44361,8 +44415,8 @@
         <v>9.0333759784698403E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -44373,8 +44427,8 @@
         <v>0.110411271452903</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -44385,8 +44439,8 @@
         <v>9.2384546995162894E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -44397,8 +44451,8 @@
         <v>9.30519700050354E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="3">
         <v>5</v>
       </c>
       <c r="C18" t="s">
@@ -44411,8 +44465,8 @@
         <v>0.112723655998706</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>10</v>
       </c>
@@ -44423,8 +44477,8 @@
         <v>0.120973654091358</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>13</v>
       </c>
@@ -44435,8 +44489,8 @@
         <v>0.10551229119300801</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -44447,8 +44501,8 @@
         <v>0.106068953871726</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="3">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -44461,8 +44515,8 @@
         <v>8.8751599192619296E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>10</v>
       </c>
@@ -44473,8 +44527,8 @@
         <v>9.2099882662296295E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="2"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -44485,8 +44539,8 @@
         <v>9.3551971018314306E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="2"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -44497,8 +44551,8 @@
         <v>8.8272258639335605E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="3">
         <v>7</v>
       </c>
       <c r="C26" t="s">
@@ -44511,8 +44565,8 @@
         <v>8.8182173669338199E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="2"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>10</v>
       </c>
@@ -44523,8 +44577,8 @@
         <v>8.9287608861923204E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="2"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>13</v>
       </c>
@@ -44535,8 +44589,8 @@
         <v>9.5588423311710302E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="2"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -44547,8 +44601,8 @@
         <v>8.7297573685646002E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="3">
         <v>8</v>
       </c>
       <c r="C30" t="s">
@@ -44561,8 +44615,8 @@
         <v>9.5131456851959201E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="2"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>10</v>
       </c>
@@ -44573,8 +44627,8 @@
         <v>9.39378142356872E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="2"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="3"/>
       <c r="C32" t="s">
         <v>13</v>
       </c>
@@ -44585,8 +44639,8 @@
         <v>9.98879075050354E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="2"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" s="3"/>
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -44612,4 +44666,802 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9EC4EC-5623-4645-9AED-BA9FF3187042}">
+  <dimension ref="B2:I16"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>3.8297229000000002E-2</v>
+      </c>
+      <c r="E3">
+        <v>8.8568649999999999E-2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>3.3248406000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>9.6325493999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="3"/>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>3.8401455000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>8.8289931000000002E-2</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>3.3639651E-2</v>
+      </c>
+      <c r="I4">
+        <v>9.5809310999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>3.8717251000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>8.6049742999999998E-2</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>3.4135266999999997E-2</v>
+      </c>
+      <c r="I5">
+        <v>9.6872351999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="3"/>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>3.8717347999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>8.6509235000000004E-2</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>3.4674062999999998E-2</v>
+      </c>
+      <c r="I6">
+        <v>9.8193354999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="3"/>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>3.9908811000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>8.8010818000000005E-2</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>4.2058337000000001E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.11822742999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>4.0014170000000002E-2</v>
+      </c>
+      <c r="E8">
+        <v>8.8373512000000001E-2</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>4.2317822999999997E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.112029977</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>5.4650458999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.10895703700000001</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>6.2698558000000001E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.15310765800000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>3.2712976999999997E-2</v>
+      </c>
+      <c r="E10">
+        <v>8.7552130000000006E-2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>3.8381594999999998E-2</v>
+      </c>
+      <c r="I10">
+        <v>8.7870210000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>3.4474533000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>8.9368522000000006E-2</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>3.8671195999999998E-2</v>
+      </c>
+      <c r="I11">
+        <v>8.6548476999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>3.472662E-2</v>
+      </c>
+      <c r="E12">
+        <v>9.1920555000000001E-2</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>3.8695566000000001E-2</v>
+      </c>
+      <c r="I12">
+        <v>9.0126245999999993E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="3"/>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>3.5117149E-2</v>
+      </c>
+      <c r="E13">
+        <v>9.0180500999999996E-2</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>3.8773578000000003E-2</v>
+      </c>
+      <c r="I13">
+        <v>8.6318009000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="3"/>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>3.5327672999999997E-2</v>
+      </c>
+      <c r="E14">
+        <v>9.2359617000000005E-2</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>3.9907020000000001E-2</v>
+      </c>
+      <c r="I14">
+        <v>8.7750144000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="3"/>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>3.7349964999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>9.3833573000000003E-2</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>3.9993993999999998E-2</v>
+      </c>
+      <c r="I15">
+        <v>8.8339961999999994E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="3"/>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>5.5128089999999998E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.127138272</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <v>5.4673648999999998E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.109475456</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E30">
+    <sortCondition descending="1" ref="B3:B30"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="F10:F16"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ECD021-A7DE-482C-AF72-4CC25CC58C46}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>1.5018705278635001E-2</v>
+      </c>
+      <c r="D2">
+        <v>4.8139814287423997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>1.5433430671691801E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.7094877809286097E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>1.50797022506594E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.7223020344972597E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1.47096784785389E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.9075324088335003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>1.5703206881880701E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.97813187539577E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>1.44489901140332E-2</v>
+      </c>
+      <c r="D7">
+        <v>4.5561522245407098E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>1.55054591596126E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.7315068542957299E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1.5832519158720901E-2</v>
+      </c>
+      <c r="D9">
+        <v>5.32821379601955E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>1.42210684716701E-2</v>
+      </c>
+      <c r="D10">
+        <v>4.8778917640447603E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>1.46669009700417E-2</v>
+      </c>
+      <c r="D11">
+        <v>5.1236312836408601E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1.4270815998315801E-2</v>
+      </c>
+      <c r="D12">
+        <v>4.8288263380527399E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>1.4902915805578201E-2</v>
+      </c>
+      <c r="D13">
+        <v>6.29282891750335E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1.38106467202305E-2</v>
+      </c>
+      <c r="D14">
+        <v>4.9076642841100603E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>1.5293370932340599E-2</v>
+      </c>
+      <c r="D15">
+        <v>5.2558500319719301E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>2.1225418895483E-2</v>
+      </c>
+      <c r="D16">
+        <v>7.9941198229789706E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>2.8926996514201098E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.12964443862438199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1.6830744221806498E-2</v>
+      </c>
+      <c r="D18">
+        <v>6.7876905202865601E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>1.8400313332676801E-2</v>
+      </c>
+      <c r="D19">
+        <v>6.9175697863101904E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>3.3528547734022099E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.117072448134422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>4.9502927809953599E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.16871103644370999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>2.4136966094374601E-2</v>
+      </c>
+      <c r="D22">
+        <v>8.2419142127037007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>1.45916687324643E-2</v>
+      </c>
+      <c r="D23">
+        <v>4.7128830105066299E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1.5432149171829199E-2</v>
+      </c>
+      <c r="D24">
+        <v>4.7281429171562098E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>1.4673794619739E-2</v>
+      </c>
+      <c r="D25">
+        <v>4.7586861997842698E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>1.51378363370895E-2</v>
+      </c>
+      <c r="D26">
+        <v>5.0776179879903703E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>1.5641838312148999E-2</v>
+      </c>
+      <c r="D27">
+        <v>4.9639809876680298E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>1.44060999155044E-2</v>
+      </c>
+      <c r="D28">
+        <v>4.5219205319881398E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>1.54209537431597E-2</v>
+      </c>
+      <c r="D29">
+        <v>4.7618374228477402E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
+    <sortCondition descending="1" ref="A2:A29"/>
+  </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>